--- a/data/trans_dic/P1805-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Estudios-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1805-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,24; 3,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,4; 4,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 5,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 4,33</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>0; 0,09</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 4,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 4,0</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,26; 2,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,51; 4,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0; 0,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 4,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 4,75</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 3,24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 4,29</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,73; 3,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,61; 6,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 4,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 8,46</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 3,11</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 6,59</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
         </is>
       </c>
     </row>
@@ -889,22 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>1,39; 2,29</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 4,19</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 4,44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 4,95</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 3,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 4,32</t>
         </is>
       </c>
     </row>
@@ -918,13 +1213,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1805-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,37</t>
+          <t>1,4; 4,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,33</t>
+          <t>2,36; 4,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,0</t>
+          <t>2,27; 3,96</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,61</t>
+          <t>2,07; 4,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,75</t>
+          <t>2,46; 4,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,29</t>
+          <t>2,55; 3,99</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,12</t>
+          <t>2,66; 6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,46</t>
+          <t>4,91; 8,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,59</t>
+          <t>4,11; 6,55</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,19</t>
+          <t>2,31; 4,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 4,95</t>
+          <t>3,17; 4,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,32</t>
+          <t>3,09; 4,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1805-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,4</t>
+          <t>1,23; 3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,33</t>
+          <t>1,42; 4,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,82</t>
+          <t>3,04; 5,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,26</t>
+          <t>2,29; 4,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,37</t>
+          <t>2,52; 4,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,96</t>
+          <t>2,22; 3,92</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,42</t>
+          <t>1,28; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,31</t>
+          <t>2,07; 4,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,71</t>
+          <t>2,85; 4,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,44</t>
+          <t>2,56; 4,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,24</t>
+          <t>2,23; 3,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,99</t>
+          <t>2,62; 4,03</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,03</t>
+          <t>0,69; 2,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,32</t>
+          <t>2,6; 6,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,46</t>
+          <t>1,59; 4,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,44</t>
+          <t>4,76; 8,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,11</t>
+          <t>1,39; 3,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,55</t>
+          <t>4,16; 6,64</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,29</t>
+          <t>1,4; 2,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,06</t>
+          <t>2,46; 4,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,44</t>
+          <t>3,11; 4,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 4,74</t>
+          <t>3,14; 4,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,27</t>
+          <t>2,39; 3,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 4,2</t>
+          <t>3,04; 4,16</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un psicologo o psicoterapeuta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15937</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13595</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42525</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24116</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>58462</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>37711</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9255; 25913</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7333; 23906</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30234; 59009</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17319; 32496</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1934</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44085; 75239</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28156; 49744</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36705</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70613</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>73401</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78638</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>110106</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>149251</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26582; 50678</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47391; 96888</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2063</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>56570; 91790</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57235; 100224</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1967</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>90735; 132440</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>118462; 182541</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8421</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26716</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15013</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42056</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23434</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>68773</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2104</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3790; 15466</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16803; 40695</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2019</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2132</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8706; 24537</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31440; 56034</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2014</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2121</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15215; 34770</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54356; 86736</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61063</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>110924</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>130939</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>144810</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>192002</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>255734</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47287; 79024</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>84926; 140746</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>109941; 156251</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>114620; 170094</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>165200; 222790</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>216266; 295350</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>